--- a/biology/Médecine/Shelter_Me_(film,_2023)/Shelter_Me_(film,_2023).xlsx
+++ b/biology/Médecine/Shelter_Me_(film,_2023)/Shelter_Me_(film,_2023).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shelter Me est un film américain réalisé par Jake Weber sur un scénario de Jake Weber et Tony Herbert. Il met en scène une série d'intrigues se déroulant dans le contexte international du Covid-19[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shelter Me est un film américain réalisé par Jake Weber sur un scénario de Jake Weber et Tony Herbert. Il met en scène une série d'intrigues se déroulant dans le contexte international du Covid-19. 
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,24 +551,26 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Shelter Me
-Réalisation : Jake Weber[1],[2],[3]
-Scénario : Jake Weber et Tony Herbert[1],[2],[3]
+Réalisation : Jake Weber
+Scénario : Jake Weber et Tony Herbert
 Musique : n.c.
 Décors : n.c.
 Costumes : n.c.
 Photographie : n.c.
 Montage : n.c.
-Production : Kimberly Hines, Jim Steele, Eliza Flug et Mike Hatton[1],[2]
+Production : Kimberly Hines, Jim Steele, Eliza Flug et Mike Hatton,
 Producteurs délégués : n.c.
-Sociétés de production : Framework Entertainment, Filmray et Ton of Hats[1],[3]
+Sociétés de production : Framework Entertainment, Filmray et Ton of Hats,
 Société de distribution : n.c.
 Pays de production :  États-Unis
 Langue originale : anglais
 Format : couleur
-Genre : Drame psychologique pandémique[1],[4],[3]
+Genre : Drame psychologique pandémique
 Durée : n.c.
 Date de sortie : n.c.</t>
         </is>
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nick Nolte :
 Jacqueline Bisset :
@@ -621,12 +639,52 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Genèse et développement
-Shelter Me marque les débuts en tant que réalisateur de l'acteur Jake Weber, qui co-signe le scénario avec Tony Herbert[1],[4],[5],[6],[2],[3].
-La production est assurée par Kimberly Hines pour Framework Entertainment, Jim Steele et Eliza Flug pour Filmray ainsi que Mike Hatton pour Ton of Hats[1],[4],[2],[3].
-Attribution des rôles
-Le drame psychologique pandémique Shelter Me réunit Nick Nolte et Jacqueline Bisset qui ont joué ensemble dans le thriller océanique The Deep de 1977 basé sur le roman de Peter Benchley, l'auteur de Jaws[4],[7].
-Tournage</t>
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shelter Me marque les débuts en tant que réalisateur de l'acteur Jake Weber, qui co-signe le scénario avec Tony Herbert.
+La production est assurée par Kimberly Hines pour Framework Entertainment, Jim Steele et Eliza Flug pour Filmray ainsi que Mike Hatton pour Ton of Hats.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Shelter_Me_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shelter_Me_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le drame psychologique pandémique Shelter Me réunit Nick Nolte et Jacqueline Bisset qui ont joué ensemble dans le thriller océanique The Deep de 1977 basé sur le roman de Peter Benchley, l'auteur de Jaws,.
+</t>
         </is>
       </c>
     </row>
